--- a/www/IndicatorsPerCountry/Chile_GDPperCapita_TerritorialRef_1946_2012_CCode_152.xlsx
+++ b/www/IndicatorsPerCountry/Chile_GDPperCapita_TerritorialRef_1946_2012_CCode_152.xlsx
@@ -501,13 +501,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Chile_GDPperCapita_TerritorialRef_1946_2012_CCode_152.xlsx
+++ b/www/IndicatorsPerCountry/Chile_GDPperCapita_TerritorialRef_1946_2012_CCode_152.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="224">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,442 +36,619 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>626.107278016</t>
+    <t>853</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>604.547195132</t>
-  </si>
-  <si>
-    <t>909.504560492</t>
-  </si>
-  <si>
-    <t>1081.60665718</t>
-  </si>
-  <si>
-    <t>1290.25121593</t>
-  </si>
-  <si>
-    <t>1273.58947681</t>
-  </si>
-  <si>
-    <t>1348.6289994</t>
-  </si>
-  <si>
-    <t>1416.64536536</t>
-  </si>
-  <si>
-    <t>1337.15830453</t>
-  </si>
-  <si>
-    <t>1426.13020805</t>
-  </si>
-  <si>
-    <t>1389.89139087</t>
-  </si>
-  <si>
-    <t>1325.25533903</t>
-  </si>
-  <si>
-    <t>1384.79938585</t>
-  </si>
-  <si>
-    <t>1571.70563019</t>
-  </si>
-  <si>
-    <t>1740.16480986</t>
-  </si>
-  <si>
-    <t>1775.00700231</t>
-  </si>
-  <si>
-    <t>1895.08685423</t>
-  </si>
-  <si>
-    <t>1879.38680113</t>
-  </si>
-  <si>
-    <t>1869.00050949</t>
-  </si>
-  <si>
-    <t>1787.65060029</t>
-  </si>
-  <si>
-    <t>1837.15418076</t>
-  </si>
-  <si>
-    <t>1938.49300853</t>
-  </si>
-  <si>
-    <t>1836.32582915</t>
-  </si>
-  <si>
-    <t>1858.36051702</t>
-  </si>
-  <si>
-    <t>1966.44707296</t>
-  </si>
-  <si>
-    <t>2098.75073079</t>
-  </si>
-  <si>
-    <t>2029.85408376</t>
-  </si>
-  <si>
-    <t>2103.13028792</t>
-  </si>
-  <si>
-    <t>2042.08564527</t>
-  </si>
-  <si>
-    <t>2157.81448072</t>
-  </si>
-  <si>
-    <t>2142.92072483</t>
-  </si>
-  <si>
-    <t>2069.63284029</t>
-  </si>
-  <si>
-    <t>2292.25564662</t>
-  </si>
-  <si>
-    <t>2278.82585113</t>
-  </si>
-  <si>
-    <t>2194.03302764</t>
-  </si>
-  <si>
-    <t>2222.51421992</t>
-  </si>
-  <si>
-    <t>2292.5777149</t>
-  </si>
-  <si>
-    <t>2138.78459213</t>
-  </si>
-  <si>
-    <t>2287.48178502</t>
-  </si>
-  <si>
-    <t>2259.24028489</t>
-  </si>
-  <si>
-    <t>2408.40139461</t>
-  </si>
-  <si>
-    <t>2507.31158981</t>
-  </si>
-  <si>
-    <t>2742.52474223</t>
-  </si>
-  <si>
-    <t>2725.69469466</t>
-  </si>
-  <si>
-    <t>3000.10760882</t>
-  </si>
-  <si>
-    <t>2886.53444441</t>
-  </si>
-  <si>
-    <t>2967.751512</t>
-  </si>
-  <si>
-    <t>2988.3450509</t>
-  </si>
-  <si>
-    <t>2496.84595638</t>
-  </si>
-  <si>
-    <t>2389.09304319</t>
-  </si>
-  <si>
-    <t>2895.18162702</t>
-  </si>
-  <si>
-    <t>2923.31808167</t>
-  </si>
-  <si>
-    <t>2925.87562415</t>
-  </si>
-  <si>
-    <t>2480.49021482</t>
-  </si>
-  <si>
-    <t>2768.18462254</t>
-  </si>
-  <si>
-    <t>2369.80282549</t>
-  </si>
-  <si>
-    <t>2425.78272453</t>
-  </si>
-  <si>
-    <t>2884.60098348</t>
-  </si>
-  <si>
-    <t>3061.67968354</t>
-  </si>
-  <si>
-    <t>3152.44165416</t>
-  </si>
-  <si>
-    <t>2850.49023028</t>
-  </si>
-  <si>
-    <t>2759.77906886</t>
-  </si>
-  <si>
-    <t>3332.35936381</t>
-  </si>
-  <si>
-    <t>3455.42929993</t>
-  </si>
-  <si>
-    <t>2858.7639159</t>
-  </si>
-  <si>
-    <t>2217.67226964</t>
-  </si>
-  <si>
-    <t>1844.45582958</t>
-  </si>
-  <si>
-    <t>2236.34712074</t>
-  </si>
-  <si>
-    <t>2655.49029867</t>
-  </si>
-  <si>
-    <t>2761.24334023</t>
-  </si>
-  <si>
-    <t>2847.4554033</t>
-  </si>
-  <si>
-    <t>3181.24439681</t>
-  </si>
-  <si>
-    <t>3160.88871033</t>
-  </si>
-  <si>
-    <t>3169.25480508</t>
-  </si>
-  <si>
-    <t>3236.21480426</t>
-  </si>
-  <si>
-    <t>3140.72371031</t>
-  </si>
-  <si>
-    <t>3225.68287747</t>
-  </si>
-  <si>
-    <t>3256.11028282</t>
-  </si>
-  <si>
-    <t>3255.81229456</t>
-  </si>
-  <si>
-    <t>3471.48869955</t>
-  </si>
-  <si>
-    <t>3699.33777756</t>
-  </si>
-  <si>
-    <t>3240.15368923</t>
-  </si>
-  <si>
-    <t>3711.88009702</t>
-  </si>
-  <si>
-    <t>3568.79903856</t>
-  </si>
-  <si>
-    <t>3669.74179762</t>
-  </si>
-  <si>
-    <t>3730.99783977</t>
-  </si>
-  <si>
-    <t>3893.03184969</t>
-  </si>
-  <si>
-    <t>4112.1311816</t>
-  </si>
-  <si>
-    <t>3907.2538063</t>
-  </si>
-  <si>
-    <t>3975.38909976</t>
-  </si>
-  <si>
-    <t>3956.80605145</t>
-  </si>
-  <si>
-    <t>4264.19978657</t>
-  </si>
-  <si>
-    <t>4391.55957615</t>
-  </si>
-  <si>
-    <t>4042.02669474</t>
-  </si>
-  <si>
-    <t>4270.27723078</t>
-  </si>
-  <si>
-    <t>4366.3048581</t>
-  </si>
-  <si>
-    <t>4465.24692263</t>
-  </si>
-  <si>
-    <t>4639.2840815</t>
-  </si>
-  <si>
-    <t>4638.28835865</t>
-  </si>
-  <si>
-    <t>4577.13853777</t>
-  </si>
-  <si>
-    <t>4984.45350884</t>
-  </si>
-  <si>
-    <t>5045.80581508</t>
-  </si>
-  <si>
-    <t>5127.64487718</t>
-  </si>
-  <si>
-    <t>5220.4383233</t>
-  </si>
-  <si>
-    <t>5231.42938861</t>
-  </si>
-  <si>
-    <t>5597.30891929</t>
-  </si>
-  <si>
-    <t>5428.56021862</t>
-  </si>
-  <si>
-    <t>5033.68030611</t>
-  </si>
-  <si>
-    <t>4991.98569381</t>
-  </si>
-  <si>
-    <t>4273.29265479</t>
-  </si>
-  <si>
-    <t>4347.02556149</t>
-  </si>
-  <si>
-    <t>4700.08446881</t>
-  </si>
-  <si>
-    <t>5010.66067031</t>
-  </si>
-  <si>
-    <t>5344.66099924</t>
-  </si>
-  <si>
-    <t>5680.41486315</t>
-  </si>
-  <si>
-    <t>5932.44591599</t>
-  </si>
-  <si>
-    <t>5034.94817474</t>
-  </si>
-  <si>
-    <t>4810.22890322</t>
-  </si>
-  <si>
-    <t>5010.88842137</t>
-  </si>
-  <si>
-    <t>5029.55416676</t>
-  </si>
-  <si>
-    <t>5227.41885445</t>
-  </si>
-  <si>
-    <t>5480.24378364</t>
-  </si>
-  <si>
-    <t>5780.39739385</t>
-  </si>
-  <si>
-    <t>6282.89744237</t>
-  </si>
-  <si>
-    <t>6400.94447407</t>
-  </si>
-  <si>
-    <t>6784.48781217</t>
-  </si>
-  <si>
-    <t>7482.81087148</t>
-  </si>
-  <si>
-    <t>7869.48670629</t>
-  </si>
-  <si>
-    <t>8181.67828781</t>
-  </si>
-  <si>
-    <t>8910.44375453</t>
-  </si>
-  <si>
-    <t>9426.99980506</t>
-  </si>
-  <si>
-    <t>9906.15818254</t>
-  </si>
-  <si>
-    <t>10088.428308</t>
-  </si>
-  <si>
-    <t>9883.60801794</t>
-  </si>
-  <si>
-    <t>10198.9285644</t>
-  </si>
-  <si>
-    <t>10421.4872565</t>
-  </si>
-  <si>
-    <t>10532.6540778</t>
-  </si>
-  <si>
-    <t>10837.3923514</t>
-  </si>
-  <si>
-    <t>11485.2730015</t>
-  </si>
-  <si>
-    <t>12079.8531991</t>
-  </si>
-  <si>
-    <t>12648.0084911</t>
-  </si>
-  <si>
-    <t>13176.0518902</t>
-  </si>
-  <si>
-    <t>13479.0848106</t>
-  </si>
-  <si>
-    <t>13210.085829</t>
-  </si>
-  <si>
-    <t>13883.184559</t>
+    <t>815</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>885</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>932</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>956</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>983</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>991</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>1141</t>
+  </si>
+  <si>
+    <t>1170</t>
+  </si>
+  <si>
+    <t>1183</t>
+  </si>
+  <si>
+    <t>1227</t>
+  </si>
+  <si>
+    <t>1298</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>1392</t>
+  </si>
+  <si>
+    <t>1404</t>
+  </si>
+  <si>
+    <t>1364</t>
+  </si>
+  <si>
+    <t>1387</t>
+  </si>
+  <si>
+    <t>1425</t>
+  </si>
+  <si>
+    <t>1427</t>
+  </si>
+  <si>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>1513</t>
+  </si>
+  <si>
+    <t>1559</t>
+  </si>
+  <si>
+    <t>1588</t>
+  </si>
+  <si>
+    <t>1575</t>
+  </si>
+  <si>
+    <t>1553</t>
+  </si>
+  <si>
+    <t>1596</t>
+  </si>
+  <si>
+    <t>1667</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1750</t>
+  </si>
+  <si>
+    <t>1666</t>
+  </si>
+  <si>
+    <t>1714</t>
+  </si>
+  <si>
+    <t>1849</t>
+  </si>
+  <si>
+    <t>1868</t>
+  </si>
+  <si>
+    <t>1836</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>2219</t>
+  </si>
+  <si>
+    <t>2418</t>
+  </si>
+  <si>
+    <t>2488</t>
+  </si>
+  <si>
+    <t>2694</t>
+  </si>
+  <si>
+    <t>2683</t>
+  </si>
+  <si>
+    <t>2703</t>
+  </si>
+  <si>
+    <t>2547</t>
+  </si>
+  <si>
+    <t>2625</t>
+  </si>
+  <si>
+    <t>2783</t>
+  </si>
+  <si>
+    <t>2617</t>
+  </si>
+  <si>
+    <t>2708</t>
+  </si>
+  <si>
+    <t>2907</t>
+  </si>
+  <si>
+    <t>3038</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>3084</t>
+  </si>
+  <si>
+    <t>2978</t>
+  </si>
+  <si>
+    <t>3304</t>
+  </si>
+  <si>
+    <t>3379</t>
+  </si>
+  <si>
+    <t>3210</t>
+  </si>
+  <si>
+    <t>3609</t>
+  </si>
+  <si>
+    <t>3467</t>
+  </si>
+  <si>
+    <t>3386</t>
+  </si>
+  <si>
+    <t>3416</t>
+  </si>
+  <si>
+    <t>3604</t>
+  </si>
+  <si>
+    <t>3381</t>
+  </si>
+  <si>
+    <t>3647</t>
+  </si>
+  <si>
+    <t>3470</t>
+  </si>
+  <si>
+    <t>3668</t>
+  </si>
+  <si>
+    <t>3810</t>
+  </si>
+  <si>
+    <t>4020</t>
+  </si>
+  <si>
+    <t>4042</t>
+  </si>
+  <si>
+    <t>4485</t>
+  </si>
+  <si>
+    <t>4481</t>
+  </si>
+  <si>
+    <t>4806</t>
+  </si>
+  <si>
+    <t>4836</t>
+  </si>
+  <si>
+    <t>4071</t>
+  </si>
+  <si>
+    <t>3813</t>
+  </si>
+  <si>
+    <t>4600</t>
+  </si>
+  <si>
+    <t>4621</t>
+  </si>
+  <si>
+    <t>4602</t>
+  </si>
+  <si>
+    <t>3853</t>
+  </si>
+  <si>
+    <t>4248</t>
+  </si>
+  <si>
+    <t>3727</t>
+  </si>
+  <si>
+    <t>3814</t>
+  </si>
+  <si>
+    <t>4514</t>
+  </si>
+  <si>
+    <t>4779</t>
+  </si>
+  <si>
+    <t>4903</t>
+  </si>
+  <si>
+    <t>4702</t>
+  </si>
+  <si>
+    <t>4544</t>
+  </si>
+  <si>
+    <t>5609</t>
+  </si>
+  <si>
+    <t>5679</t>
+  </si>
+  <si>
+    <t>4876</t>
+  </si>
+  <si>
+    <t>3904</t>
+  </si>
+  <si>
+    <t>2950</t>
+  </si>
+  <si>
+    <t>3618</t>
+  </si>
+  <si>
+    <t>4269</t>
+  </si>
+  <si>
+    <t>4511</t>
+  </si>
+  <si>
+    <t>4584</t>
+  </si>
+  <si>
+    <t>5083</t>
+  </si>
+  <si>
+    <t>5070</t>
+  </si>
+  <si>
+    <t>5106</t>
+  </si>
+  <si>
+    <t>5177</t>
+  </si>
+  <si>
+    <t>5091</t>
+  </si>
+  <si>
+    <t>5161</t>
+  </si>
+  <si>
+    <t>5209</t>
+  </si>
+  <si>
+    <t>5553</t>
+  </si>
+  <si>
+    <t>5918</t>
+  </si>
+  <si>
+    <t>5187</t>
+  </si>
+  <si>
+    <t>5939</t>
+  </si>
+  <si>
+    <t>5710</t>
+  </si>
+  <si>
+    <t>5880</t>
+  </si>
+  <si>
+    <t>6001</t>
+  </si>
+  <si>
+    <t>6252</t>
+  </si>
+  <si>
+    <t>6582</t>
+  </si>
+  <si>
+    <t>6237</t>
+  </si>
+  <si>
+    <t>6341</t>
+  </si>
+  <si>
+    <t>6285</t>
+  </si>
+  <si>
+    <t>6758</t>
+  </si>
+  <si>
+    <t>6958</t>
+  </si>
+  <si>
+    <t>6409</t>
+  </si>
+  <si>
+    <t>6781</t>
+  </si>
+  <si>
+    <t>6923</t>
+  </si>
+  <si>
+    <t>7071</t>
+  </si>
+  <si>
+    <t>7336</t>
+  </si>
+  <si>
+    <t>7320</t>
+  </si>
+  <si>
+    <t>7208</t>
+  </si>
+  <si>
+    <t>7844</t>
+  </si>
+  <si>
+    <t>7933</t>
+  </si>
+  <si>
+    <t>8053</t>
+  </si>
+  <si>
+    <t>8187</t>
+  </si>
+  <si>
+    <t>8195</t>
+  </si>
+  <si>
+    <t>8773</t>
+  </si>
+  <si>
+    <t>8520</t>
+  </si>
+  <si>
+    <t>7911</t>
+  </si>
+  <si>
+    <t>7857</t>
+  </si>
+  <si>
+    <t>6731</t>
+  </si>
+  <si>
+    <t>6868</t>
+  </si>
+  <si>
+    <t>7438</t>
+  </si>
+  <si>
+    <t>7936</t>
+  </si>
+  <si>
+    <t>8475</t>
+  </si>
+  <si>
+    <t>9024</t>
+  </si>
+  <si>
+    <t>9427</t>
+  </si>
+  <si>
+    <t>8016</t>
+  </si>
+  <si>
+    <t>7667</t>
+  </si>
+  <si>
+    <t>7992</t>
+  </si>
+  <si>
+    <t>8024</t>
+  </si>
+  <si>
+    <t>8325</t>
+  </si>
+  <si>
+    <t>8721</t>
+  </si>
+  <si>
+    <t>9199</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>10203</t>
+  </si>
+  <si>
+    <t>10746.4915641559</t>
+  </si>
+  <si>
+    <t>11773.3007091455</t>
+  </si>
+  <si>
+    <t>12296.9256463059</t>
+  </si>
+  <si>
+    <t>12692.5511321862</t>
+  </si>
+  <si>
+    <t>13715.9329954789</t>
+  </si>
+  <si>
+    <t>14433.3197742387</t>
+  </si>
+  <si>
+    <t>15079.8311950225</t>
+  </si>
+  <si>
+    <t>15259.5408475535</t>
+  </si>
+  <si>
+    <t>14846.4175283184</t>
+  </si>
+  <si>
+    <t>15211.6232956044</t>
+  </si>
+  <si>
+    <t>15448.008813318</t>
+  </si>
+  <si>
+    <t>15509.8247751724</t>
+  </si>
+  <si>
+    <t>15809.1777684547</t>
+  </si>
+  <si>
+    <t>16478.9727867052</t>
+  </si>
+  <si>
+    <t>17137.4860414664</t>
+  </si>
+  <si>
+    <t>17920.8031312197</t>
+  </si>
+  <si>
+    <t>18487.9007351472</t>
+  </si>
+  <si>
+    <t>18804.0293633295</t>
+  </si>
+  <si>
+    <t>18184.4813776621</t>
+  </si>
+  <si>
+    <t>18909.8472762053</t>
+  </si>
+  <si>
+    <t>19705</t>
+  </si>
+  <si>
+    <t>20531</t>
+  </si>
+  <si>
+    <t>21135</t>
+  </si>
+  <si>
+    <t>21335</t>
+  </si>
+  <si>
+    <t>21589</t>
+  </si>
+  <si>
+    <t>21696</t>
   </si>
   <si>
     <t>Description</t>
@@ -759,7 +936,7 @@
         <v>1810.0</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -776,7 +953,7 @@
         <v>1811.0</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -793,7 +970,7 @@
         <v>1812.0</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -810,7 +987,7 @@
         <v>1813.0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -827,7 +1004,7 @@
         <v>1814.0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -844,7 +1021,7 @@
         <v>1815.0</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -861,7 +1038,7 @@
         <v>1816.0</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -878,7 +1055,7 @@
         <v>1817.0</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -895,7 +1072,7 @@
         <v>1818.0</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +1089,7 @@
         <v>1819.0</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -929,7 +1106,7 @@
         <v>1820.0</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -946,7 +1123,7 @@
         <v>1821.0</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -963,7 +1140,7 @@
         <v>1822.0</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -980,7 +1157,7 @@
         <v>1823.0</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -997,7 +1174,7 @@
         <v>1824.0</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -1014,7 +1191,7 @@
         <v>1825.0</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1031,7 +1208,7 @@
         <v>1826.0</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -1048,7 +1225,7 @@
         <v>1827.0</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1242,7 @@
         <v>1828.0</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -1082,7 +1259,7 @@
         <v>1829.0</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -1099,7 +1276,7 @@
         <v>1830.0</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -1116,7 +1293,7 @@
         <v>1831.0</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
@@ -1133,7 +1310,7 @@
         <v>1832.0</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -1150,7 +1327,7 @@
         <v>1833.0</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -1167,7 +1344,7 @@
         <v>1834.0</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -1184,7 +1361,7 @@
         <v>1835.0</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -1201,7 +1378,7 @@
         <v>1836.0</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -1218,7 +1395,7 @@
         <v>1837.0</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -1235,7 +1412,7 @@
         <v>1838.0</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1429,7 @@
         <v>1839.0</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
@@ -1269,7 +1446,7 @@
         <v>1840.0</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43">
@@ -1286,7 +1463,7 @@
         <v>1841.0</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
@@ -1303,7 +1480,7 @@
         <v>1842.0</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
@@ -1320,7 +1497,7 @@
         <v>1843.0</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
@@ -1337,7 +1514,7 @@
         <v>1844.0</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
@@ -1354,7 +1531,7 @@
         <v>1845.0</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48">
@@ -1371,7 +1548,7 @@
         <v>1846.0</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49">
@@ -1388,7 +1565,7 @@
         <v>1847.0</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50">
@@ -1405,7 +1582,7 @@
         <v>1848.0</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51">
@@ -1422,7 +1599,7 @@
         <v>1849.0</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52">
@@ -1439,7 +1616,7 @@
         <v>1850.0</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53">
@@ -1456,7 +1633,7 @@
         <v>1851.0</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54">
@@ -1473,7 +1650,7 @@
         <v>1852.0</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55">
@@ -1490,7 +1667,7 @@
         <v>1853.0</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56">
@@ -1507,7 +1684,7 @@
         <v>1854.0</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57">
@@ -1524,7 +1701,7 @@
         <v>1855.0</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58">
@@ -1541,7 +1718,7 @@
         <v>1856.0</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59">
@@ -1558,7 +1735,7 @@
         <v>1857.0</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60">
@@ -1575,7 +1752,7 @@
         <v>1858.0</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61">
@@ -1592,7 +1769,7 @@
         <v>1859.0</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62">
@@ -1609,7 +1786,7 @@
         <v>1860.0</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63">
@@ -1626,7 +1803,7 @@
         <v>1861.0</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64">
@@ -1643,7 +1820,7 @@
         <v>1862.0</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65">
@@ -1660,7 +1837,7 @@
         <v>1863.0</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66">
@@ -1677,7 +1854,7 @@
         <v>1864.0</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67">
@@ -1694,7 +1871,7 @@
         <v>1865.0</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68">
@@ -1711,7 +1888,7 @@
         <v>1866.0</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69">
@@ -1728,7 +1905,7 @@
         <v>1867.0</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70">
@@ -1745,7 +1922,7 @@
         <v>1868.0</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71">
@@ -1762,7 +1939,7 @@
         <v>1869.0</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72">
@@ -1779,7 +1956,7 @@
         <v>1870.0</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73">
@@ -1796,7 +1973,7 @@
         <v>1871.0</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74">
@@ -1813,7 +1990,7 @@
         <v>1872.0</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75">
@@ -1830,7 +2007,7 @@
         <v>1873.0</v>
       </c>
       <c r="E75" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76">
@@ -1847,7 +2024,7 @@
         <v>1874.0</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77">
@@ -1864,7 +2041,7 @@
         <v>1875.0</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78">
@@ -1881,7 +2058,7 @@
         <v>1876.0</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79">
@@ -1898,7 +2075,7 @@
         <v>1877.0</v>
       </c>
       <c r="E79" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80">
@@ -1915,7 +2092,7 @@
         <v>1878.0</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81">
@@ -1932,7 +2109,7 @@
         <v>1879.0</v>
       </c>
       <c r="E81" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82">
@@ -1949,7 +2126,7 @@
         <v>1880.0</v>
       </c>
       <c r="E82" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83">
@@ -1966,7 +2143,7 @@
         <v>1881.0</v>
       </c>
       <c r="E83" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84">
@@ -1983,7 +2160,7 @@
         <v>1882.0</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85">
@@ -2000,7 +2177,7 @@
         <v>1883.0</v>
       </c>
       <c r="E85" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86">
@@ -2017,7 +2194,7 @@
         <v>1884.0</v>
       </c>
       <c r="E86" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87">
@@ -2034,7 +2211,7 @@
         <v>1885.0</v>
       </c>
       <c r="E87" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88">
@@ -2051,7 +2228,7 @@
         <v>1886.0</v>
       </c>
       <c r="E88" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89">
@@ -2068,7 +2245,7 @@
         <v>1887.0</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90">
@@ -2085,7 +2262,7 @@
         <v>1888.0</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91">
@@ -2102,7 +2279,7 @@
         <v>1889.0</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92">
@@ -2119,7 +2296,7 @@
         <v>1890.0</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93">
@@ -2136,7 +2313,7 @@
         <v>1891.0</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94">
@@ -2153,7 +2330,7 @@
         <v>1892.0</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95">
@@ -2170,7 +2347,7 @@
         <v>1893.0</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96">
@@ -2187,7 +2364,7 @@
         <v>1894.0</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97">
@@ -2204,7 +2381,7 @@
         <v>1895.0</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98">
@@ -2221,7 +2398,7 @@
         <v>1896.0</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99">
@@ -2238,7 +2415,7 @@
         <v>1897.0</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100">
@@ -2255,7 +2432,7 @@
         <v>1898.0</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101">
@@ -2272,7 +2449,7 @@
         <v>1899.0</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102">
@@ -2289,7 +2466,7 @@
         <v>1900.0</v>
       </c>
       <c r="E102" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103">
@@ -2306,7 +2483,7 @@
         <v>1901.0</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104">
@@ -2323,7 +2500,7 @@
         <v>1902.0</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105">
@@ -2340,7 +2517,7 @@
         <v>1903.0</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106">
@@ -2357,7 +2534,7 @@
         <v>1904.0</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107">
@@ -2374,7 +2551,7 @@
         <v>1905.0</v>
       </c>
       <c r="E107" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108">
@@ -2391,7 +2568,7 @@
         <v>1906.0</v>
       </c>
       <c r="E108" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109">
@@ -2408,7 +2585,7 @@
         <v>1907.0</v>
       </c>
       <c r="E109" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110">
@@ -2425,7 +2602,7 @@
         <v>1908.0</v>
       </c>
       <c r="E110" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111">
@@ -2442,7 +2619,7 @@
         <v>1909.0</v>
       </c>
       <c r="E111" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112">
@@ -2459,7 +2636,7 @@
         <v>1910.0</v>
       </c>
       <c r="E112" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113">
@@ -2476,7 +2653,7 @@
         <v>1911.0</v>
       </c>
       <c r="E113" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114">
@@ -2493,7 +2670,7 @@
         <v>1912.0</v>
       </c>
       <c r="E114" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115">
@@ -2510,7 +2687,7 @@
         <v>1913.0</v>
       </c>
       <c r="E115" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116">
@@ -2527,7 +2704,7 @@
         <v>1914.0</v>
       </c>
       <c r="E116" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117">
@@ -2544,7 +2721,7 @@
         <v>1915.0</v>
       </c>
       <c r="E117" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118">
@@ -2561,7 +2738,7 @@
         <v>1916.0</v>
       </c>
       <c r="E118" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119">
@@ -2578,7 +2755,7 @@
         <v>1917.0</v>
       </c>
       <c r="E119" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120">
@@ -2595,7 +2772,7 @@
         <v>1918.0</v>
       </c>
       <c r="E120" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121">
@@ -2612,7 +2789,7 @@
         <v>1919.0</v>
       </c>
       <c r="E121" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122">
@@ -2629,7 +2806,7 @@
         <v>1920.0</v>
       </c>
       <c r="E122" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123">
@@ -2646,7 +2823,7 @@
         <v>1921.0</v>
       </c>
       <c r="E123" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124">
@@ -2663,7 +2840,7 @@
         <v>1922.0</v>
       </c>
       <c r="E124" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125">
@@ -2680,7 +2857,7 @@
         <v>1923.0</v>
       </c>
       <c r="E125" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126">
@@ -2697,7 +2874,7 @@
         <v>1924.0</v>
       </c>
       <c r="E126" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127">
@@ -2714,7 +2891,7 @@
         <v>1925.0</v>
       </c>
       <c r="E127" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128">
@@ -2731,7 +2908,7 @@
         <v>1926.0</v>
       </c>
       <c r="E128" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129">
@@ -2748,7 +2925,7 @@
         <v>1927.0</v>
       </c>
       <c r="E129" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130">
@@ -2765,7 +2942,7 @@
         <v>1928.0</v>
       </c>
       <c r="E130" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131">
@@ -2782,7 +2959,7 @@
         <v>1929.0</v>
       </c>
       <c r="E131" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132">
@@ -2799,7 +2976,7 @@
         <v>1930.0</v>
       </c>
       <c r="E132" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133">
@@ -2816,7 +2993,7 @@
         <v>1931.0</v>
       </c>
       <c r="E133" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134">
@@ -2833,7 +3010,7 @@
         <v>1932.0</v>
       </c>
       <c r="E134" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135">
@@ -2850,7 +3027,7 @@
         <v>1933.0</v>
       </c>
       <c r="E135" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136">
@@ -2867,7 +3044,7 @@
         <v>1934.0</v>
       </c>
       <c r="E136" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137">
@@ -2884,7 +3061,7 @@
         <v>1935.0</v>
       </c>
       <c r="E137" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138">
@@ -2901,7 +3078,7 @@
         <v>1936.0</v>
       </c>
       <c r="E138" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139">
@@ -2918,7 +3095,7 @@
         <v>1937.0</v>
       </c>
       <c r="E139" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140">
@@ -2935,7 +3112,7 @@
         <v>1938.0</v>
       </c>
       <c r="E140" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141">
@@ -2952,7 +3129,7 @@
         <v>1939.0</v>
       </c>
       <c r="E141" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142">
@@ -2969,7 +3146,7 @@
         <v>1940.0</v>
       </c>
       <c r="E142" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143">
@@ -2986,7 +3163,7 @@
         <v>1941.0</v>
       </c>
       <c r="E143" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144">
@@ -3003,7 +3180,7 @@
         <v>1942.0</v>
       </c>
       <c r="E144" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
     </row>
     <row r="145">
@@ -3020,7 +3197,7 @@
         <v>1943.0</v>
       </c>
       <c r="E145" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146">
@@ -3037,7 +3214,7 @@
         <v>1944.0</v>
       </c>
       <c r="E146" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147">
@@ -3054,7 +3231,7 @@
         <v>1945.0</v>
       </c>
       <c r="E147" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148">
@@ -3071,7 +3248,7 @@
         <v>1946.0</v>
       </c>
       <c r="E148" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
     </row>
     <row r="149">
@@ -3088,7 +3265,7 @@
         <v>1947.0</v>
       </c>
       <c r="E149" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150">
@@ -3105,7 +3282,7 @@
         <v>1948.0</v>
       </c>
       <c r="E150" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
     </row>
     <row r="151">
@@ -3122,7 +3299,7 @@
         <v>1949.0</v>
       </c>
       <c r="E151" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152">
@@ -3139,7 +3316,7 @@
         <v>1950.0</v>
       </c>
       <c r="E152" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153">
@@ -3156,7 +3333,7 @@
         <v>1951.0</v>
       </c>
       <c r="E153" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154">
@@ -3173,7 +3350,7 @@
         <v>1952.0</v>
       </c>
       <c r="E154" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155">
@@ -3190,7 +3367,7 @@
         <v>1953.0</v>
       </c>
       <c r="E155" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156">
@@ -3207,7 +3384,7 @@
         <v>1954.0</v>
       </c>
       <c r="E156" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157">
@@ -3224,7 +3401,7 @@
         <v>1955.0</v>
       </c>
       <c r="E157" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
     </row>
     <row r="158">
@@ -3241,7 +3418,7 @@
         <v>1956.0</v>
       </c>
       <c r="E158" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
     </row>
     <row r="159">
@@ -3258,7 +3435,7 @@
         <v>1957.0</v>
       </c>
       <c r="E159" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160">
@@ -3275,7 +3452,7 @@
         <v>1958.0</v>
       </c>
       <c r="E160" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
     </row>
     <row r="161">
@@ -3292,7 +3469,7 @@
         <v>1959.0</v>
       </c>
       <c r="E161" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
     </row>
     <row r="162">
@@ -3309,7 +3486,7 @@
         <v>1960.0</v>
       </c>
       <c r="E162" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
     </row>
     <row r="163">
@@ -3326,7 +3503,7 @@
         <v>1961.0</v>
       </c>
       <c r="E163" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
     </row>
     <row r="164">
@@ -3343,7 +3520,7 @@
         <v>1962.0</v>
       </c>
       <c r="E164" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165">
@@ -3360,7 +3537,7 @@
         <v>1963.0</v>
       </c>
       <c r="E165" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166">
@@ -3377,7 +3554,7 @@
         <v>1964.0</v>
       </c>
       <c r="E166" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
     </row>
     <row r="167">
@@ -3394,7 +3571,7 @@
         <v>1965.0</v>
       </c>
       <c r="E167" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
     </row>
     <row r="168">
@@ -3411,7 +3588,7 @@
         <v>1966.0</v>
       </c>
       <c r="E168" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169">
@@ -3428,7 +3605,7 @@
         <v>1967.0</v>
       </c>
       <c r="E169" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170">
@@ -3445,7 +3622,7 @@
         <v>1968.0</v>
       </c>
       <c r="E170" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171">
@@ -3462,7 +3639,7 @@
         <v>1969.0</v>
       </c>
       <c r="E171" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
     </row>
     <row r="172">
@@ -3479,7 +3656,7 @@
         <v>1970.0</v>
       </c>
       <c r="E172" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173">
@@ -3496,7 +3673,7 @@
         <v>1971.0</v>
       </c>
       <c r="E173" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
     </row>
     <row r="174">
@@ -3513,7 +3690,7 @@
         <v>1972.0</v>
       </c>
       <c r="E174" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175">
@@ -3530,7 +3707,7 @@
         <v>1973.0</v>
       </c>
       <c r="E175" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
     </row>
     <row r="176">
@@ -3547,7 +3724,7 @@
         <v>1974.0</v>
       </c>
       <c r="E176" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177">
@@ -3564,7 +3741,7 @@
         <v>1975.0</v>
       </c>
       <c r="E177" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178">
@@ -3581,7 +3758,7 @@
         <v>1976.0</v>
       </c>
       <c r="E178" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
     </row>
     <row r="179">
@@ -3598,7 +3775,7 @@
         <v>1977.0</v>
       </c>
       <c r="E179" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180">
@@ -3615,7 +3792,7 @@
         <v>1978.0</v>
       </c>
       <c r="E180" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181">
@@ -3632,7 +3809,7 @@
         <v>1979.0</v>
       </c>
       <c r="E181" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182">
@@ -3649,7 +3826,7 @@
         <v>1980.0</v>
       </c>
       <c r="E182" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
     </row>
     <row r="183">
@@ -3666,7 +3843,7 @@
         <v>1981.0</v>
       </c>
       <c r="E183" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
     </row>
     <row r="184">
@@ -3683,7 +3860,7 @@
         <v>1982.0</v>
       </c>
       <c r="E184" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185">
@@ -3700,7 +3877,7 @@
         <v>1983.0</v>
       </c>
       <c r="E185" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186">
@@ -3717,7 +3894,7 @@
         <v>1984.0</v>
       </c>
       <c r="E186" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="187">
@@ -3734,7 +3911,7 @@
         <v>1985.0</v>
       </c>
       <c r="E187" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
     </row>
     <row r="188">
@@ -3751,7 +3928,7 @@
         <v>1986.0</v>
       </c>
       <c r="E188" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="189">
@@ -3768,7 +3945,7 @@
         <v>1987.0</v>
       </c>
       <c r="E189" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
     </row>
     <row r="190">
@@ -3785,7 +3962,7 @@
         <v>1988.0</v>
       </c>
       <c r="E190" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
     </row>
     <row r="191">
@@ -3802,7 +3979,7 @@
         <v>1989.0</v>
       </c>
       <c r="E191" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
     </row>
     <row r="192">
@@ -3819,7 +3996,7 @@
         <v>1990.0</v>
       </c>
       <c r="E192" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
     </row>
     <row r="193">
@@ -3836,7 +4013,7 @@
         <v>1991.0</v>
       </c>
       <c r="E193" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
     </row>
     <row r="194">
@@ -3853,7 +4030,7 @@
         <v>1992.0</v>
       </c>
       <c r="E194" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
     </row>
     <row r="195">
@@ -3870,7 +4047,7 @@
         <v>1993.0</v>
       </c>
       <c r="E195" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
     </row>
     <row r="196">
@@ -3887,7 +4064,7 @@
         <v>1994.0</v>
       </c>
       <c r="E196" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
     </row>
     <row r="197">
@@ -3904,7 +4081,7 @@
         <v>1995.0</v>
       </c>
       <c r="E197" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198">
@@ -3921,7 +4098,7 @@
         <v>1996.0</v>
       </c>
       <c r="E198" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
     </row>
     <row r="199">
@@ -3938,7 +4115,7 @@
         <v>1997.0</v>
       </c>
       <c r="E199" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
     </row>
     <row r="200">
@@ -3955,7 +4132,7 @@
         <v>1998.0</v>
       </c>
       <c r="E200" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
     </row>
     <row r="201">
@@ -3972,7 +4149,7 @@
         <v>1999.0</v>
       </c>
       <c r="E201" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
     </row>
     <row r="202">
@@ -3989,7 +4166,7 @@
         <v>2000.0</v>
       </c>
       <c r="E202" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
     </row>
     <row r="203">
@@ -4006,7 +4183,7 @@
         <v>2001.0</v>
       </c>
       <c r="E203" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
     </row>
     <row r="204">
@@ -4023,7 +4200,7 @@
         <v>2002.0</v>
       </c>
       <c r="E204" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
     </row>
     <row r="205">
@@ -4040,7 +4217,7 @@
         <v>2003.0</v>
       </c>
       <c r="E205" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
     </row>
     <row r="206">
@@ -4057,7 +4234,7 @@
         <v>2004.0</v>
       </c>
       <c r="E206" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
     </row>
     <row r="207">
@@ -4074,7 +4251,7 @@
         <v>2005.0</v>
       </c>
       <c r="E207" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
     </row>
     <row r="208">
@@ -4091,7 +4268,7 @@
         <v>2006.0</v>
       </c>
       <c r="E208" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209">
@@ -4108,7 +4285,7 @@
         <v>2007.0</v>
       </c>
       <c r="E209" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
     </row>
     <row r="210">
@@ -4125,7 +4302,7 @@
         <v>2008.0</v>
       </c>
       <c r="E210" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
     </row>
     <row r="211">
@@ -4142,7 +4319,7 @@
         <v>2009.0</v>
       </c>
       <c r="E211" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
     </row>
     <row r="212">
@@ -4159,7 +4336,109 @@
         <v>2010.0</v>
       </c>
       <c r="E212" t="s">
-        <v>152</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4177,50 +4456,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
